--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\negar\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C309-8C8C-4770-B1FB-6F954A70EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,13 +193,13 @@
     <t>Land Consumption</t>
   </si>
   <si>
-    <t>pulp</t>
+    <t>Shading_trees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1496,28 +1495,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="C1" s="5" t="s">
         <v>3</v>
@@ -1556,7 +1555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1651,30 +1650,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.41796875" customWidth="1"/>
+    <col min="2" max="2" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="D1" s="5" t="s">
@@ -1717,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1765,7 +1764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1799,7 +1798,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1827,7 +1826,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1853,7 +1852,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1861,7 +1860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1870,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1897,17 +1896,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" t="s">
         <v>33</v>
       </c>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -5,60 +5,60 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\kenya_sut\optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C309-8C8C-4770-B1FB-6F954A70EEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65830D5-8BF4-4015-BA7B-F24BC50D8791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="empty" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">empty!$P$3:$P$5</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">main!$P$3:$P$5</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">empty!$C$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">empty!$C$11:$C$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">main!$C$10</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">main!$C$11:$C$13</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">empty!$C$17</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">main!$C$17</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">empty!$D$10</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">empty!$D$11:$D$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">main!$D$10</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">main!$D$11:$D$13</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,17 +78,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Scenario</t>
   </si>
   <si>
-    <t>Pulping Machine</t>
-  </si>
-  <si>
-    <t>Shading Trees</t>
-  </si>
-  <si>
     <t>Unit Cost</t>
   </si>
   <si>
@@ -110,18 +104,6 @@
     <t>kSh</t>
   </si>
   <si>
-    <t>1 New P. Machine</t>
-  </si>
-  <si>
-    <t>Biomass Prod.</t>
-  </si>
-  <si>
-    <t>kWh Power Inst.</t>
-  </si>
-  <si>
-    <t>1 Banana tree</t>
-  </si>
-  <si>
     <t>ROI</t>
   </si>
   <si>
@@ -194,14 +176,29 @@
     <t>Land Consumption</t>
   </si>
   <si>
-    <t>pulp</t>
+    <t>1 M Ksh investment</t>
+  </si>
+  <si>
+    <t>Shading_nets_107_45</t>
+  </si>
+  <si>
+    <t>Pulping_machines_450_109</t>
+  </si>
+  <si>
+    <t>Shading_Trees</t>
+  </si>
+  <si>
+    <t>Biomass_ongrid</t>
+  </si>
+  <si>
+    <t>17 plants (5421 M Ksh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +214,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +231,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,9 +282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,6 +289,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -314,8 +326,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -330,8 +342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13573125" y="381000"/>
-          <a:ext cx="228600" cy="571500"/>
+          <a:off x="14411325" y="361950"/>
+          <a:ext cx="238125" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,152 +1511,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>37</v>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
@@ -1654,274 +1667,379 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="O1" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8">
-        <v>160</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="array" ref="F3:F5">D3:D5*E3:E5</f>
-        <v>320000</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8">
-        <f>H3+G3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.20245399978011849</v>
+      </c>
+      <c r="I3" s="7">
+        <v>4.9431615148663166</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4.6191184228518978E-3</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.443921173631679E-4</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>7.4838957516476512E-5</v>
+      </c>
+      <c r="N3" s="7">
+        <v>3.578425417799735E-3</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.7056420436128974</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.587206880765049</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3.892082331818528</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5.3956249576003756E-4</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4.9625109386397526E-3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2.3097625016816892E-3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.62656182702630758</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1.5960119434696629</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2.3667127534281458E-3</v>
+      </c>
+      <c r="K5" s="7">
+        <v>5.0646282579691615E-4</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>6.1807720339857042E-4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9.1856733160966542E-4</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3112.0048745051031</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.7420601048165909</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9.3408007702673785</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4.1111336977919564</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>24.33238917900599</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10.475744214048969</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <f>F3*P3+F4*P4+F5*P5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
         <f>K3*P3+K4*P4+K5*P5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <f>L3*P3+L4*P4+L5*P5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <f>J3*P3+J4*P4+J5*P5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I15" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="I16" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <f>P3*I3+P4*I4+P5*I5</f>
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65830D5-8BF4-4015-BA7B-F24BC50D8791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5603465-9C49-4B07-935D-99BB01551557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -21,40 +21,48 @@
     <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">main!$P$3:$P$5</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">main!$G$12:$G$15</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">main!$C$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">main!$D$12</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">main!$C$11:$C$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">main!$D$13:$D$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">main!$F$12:$F$15</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">main!$C$17</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">main!$D$19</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">main!$D$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">main!$E$12</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">main!$D$11:$D$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">main!$E$13:$E$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
@@ -77,8 +85,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Scenario</t>
   </si>
@@ -92,27 +122,18 @@
     <t>Functional Unit</t>
   </si>
   <si>
-    <t>kSh/FU</t>
-  </si>
-  <si>
     <t>FU</t>
   </si>
   <si>
     <t>Max Inv</t>
   </si>
   <si>
-    <t>kSh</t>
-  </si>
-  <si>
     <t>ROI</t>
   </si>
   <si>
     <t>Obj</t>
   </si>
   <si>
-    <t>xi</t>
-  </si>
-  <si>
     <t>Water Saving</t>
   </si>
   <si>
@@ -143,61 +164,84 @@
     <t>m3/FU</t>
   </si>
   <si>
-    <t>ton/FU</t>
-  </si>
-  <si>
-    <t>ha/FU</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Saving</t>
   </si>
   <si>
-    <t>Savings = VA_c - VA</t>
-  </si>
-  <si>
-    <t>N_P = Negar Parameter</t>
-  </si>
-  <si>
-    <t>Which is the percentage increase in price afte shock being justified due to additional quality of coffee</t>
-  </si>
-  <si>
-    <t>revenue = (P_c * N_P-1)*f</t>
-  </si>
-  <si>
-    <t>Water Consumption</t>
-  </si>
-  <si>
-    <t>Emission Consumption</t>
-  </si>
-  <si>
-    <t>Land Consumption</t>
-  </si>
-  <si>
     <t>1 M Ksh investment</t>
   </si>
   <si>
-    <t>Shading_nets_107_45</t>
-  </si>
-  <si>
     <t>Pulping_machines_450_109</t>
   </si>
   <si>
-    <t>Shading_Trees</t>
-  </si>
-  <si>
     <t>Biomass_ongrid</t>
   </si>
   <si>
-    <t>17 plants (5421 M Ksh)</t>
+    <t>M kSh/FU</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>Water Investment</t>
+  </si>
+  <si>
+    <t>Emission Investment</t>
+  </si>
+  <si>
+    <t>Land Investment</t>
+  </si>
+  <si>
+    <t>Workforce Saving</t>
+  </si>
+  <si>
+    <t>Workforce Investment</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>M kSh</t>
+  </si>
+  <si>
+    <t>Shading_nets_107_0.45</t>
+  </si>
+  <si>
+    <t>Shading_trees</t>
+  </si>
+  <si>
+    <t>17 plants</t>
+  </si>
+  <si>
+    <t>1 M Ksh investment*</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>M Ksh</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>kton/FU</t>
+  </si>
+  <si>
+    <t>kton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0;0;\-"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,15 +318,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,10 +337,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -318,23 +377,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="OpenSolver1">
+        <xdr:cNvPr id="68" name="OpenSolver1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB85A4DC-2FEB-4D51-BA1C-84A12B7F9722}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3BC2CF-9D0B-42EB-AA31-704581E7F563}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -342,8 +401,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14411325" y="361950"/>
-          <a:ext cx="238125" cy="733425"/>
+          <a:off x="5158740" y="2011680"/>
+          <a:ext cx="609600" cy="731520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -394,7 +453,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-GB" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -406,23 +465,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="OpenSolver2">
+        <xdr:cNvPr id="69" name="OpenSolver2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8206636F-86C3-4F08-9A2E-D8194D9D4803}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A080606-F322-43FE-9392-7D50B2F32CD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -430,8 +489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="3048000"/>
-          <a:ext cx="1123950" cy="190500"/>
+          <a:off x="3383280" y="3291840"/>
+          <a:ext cx="647700" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -476,7 +535,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-GB" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF00FF"/>
             </a:solidFill>
@@ -488,23 +547,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1301750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1361440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>236535</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231455</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="OpenSolver3">
+        <xdr:cNvPr id="70" name="OpenSolver3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EB7198-3A88-42BD-A3B8-72168D48F2DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328AF61F-2DB2-4518-A708-4DB289FBB322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -512,7 +571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663700" y="2971800"/>
+          <a:off x="3365500" y="3213100"/>
           <a:ext cx="249235" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -567,7 +626,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="900">
+            <a:rPr lang="en-GB" sz="900">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -581,23 +640,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="OpenSolver4">
+        <xdr:cNvPr id="71" name="OpenSolver4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68897316-742C-49FB-927B-93315FB8A5D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60C19AC-4EC5-4168-9E9A-DB50B609A011}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -605,8 +664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="1714500"/>
-          <a:ext cx="1123950" cy="190500"/>
+          <a:off x="3383280" y="2011680"/>
+          <a:ext cx="647700" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -651,7 +710,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-GB" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="0000FF"/>
             </a:solidFill>
@@ -663,23 +722,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="OpenSolver5">
+        <xdr:cNvPr id="72" name="OpenSolver5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB12B9B-D87C-4577-9323-5CFCC377DE3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7FA4E1-3EE3-4382-B0DE-706A40F495EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -687,8 +746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="1714500"/>
-          <a:ext cx="609600" cy="190500"/>
+          <a:off x="4030980" y="2011680"/>
+          <a:ext cx="594360" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -734,7 +793,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-GB" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="0000FF"/>
               </a:solidFill>
@@ -748,34 +807,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="OpenSolver6">
+        <xdr:cNvPr id="73" name="OpenSolver6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42B11C2-7D3A-49C4-B1D8-FB23DD4472A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA731086-5785-4FD0-AE78-66E5DD292C10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="72" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="1809750"/>
+          <a:off x="4030980" y="2103120"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -809,23 +868,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="OpenSolver7">
+        <xdr:cNvPr id="74" name="OpenSolver7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0118611F-F6F9-4452-8D28-A7B7A8D93F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B976B78B-E6E1-472A-BCD8-D77182887C1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,7 +892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="1682750"/>
+          <a:off x="3840480" y="1976120"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -888,7 +947,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -896,23 +955,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="OpenSolver8">
+        <xdr:cNvPr id="75" name="OpenSolver8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6984B105-84E6-47AC-9770-27B9ED60C5C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6D39DF-99DC-4C8F-8466-0D39B3958357}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,8 +979,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1676400" y="1905000"/>
-          <a:ext cx="1123950" cy="571500"/>
+          <a:off x="3383280" y="2194560"/>
+          <a:ext cx="647700" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,7 +1025,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
+          <a:endParaRPr lang="en-GB" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="008000"/>
             </a:solidFill>
@@ -978,23 +1037,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="OpenSolver9">
+        <xdr:cNvPr id="76" name="OpenSolver9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87E39CA-26C3-4C84-B375-C7D4CE99E536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE90024E-3931-4338-86AB-B1BF743693CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1002,8 +1061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="1905000"/>
-          <a:ext cx="609600" cy="571500"/>
+          <a:off x="4030980" y="2194560"/>
+          <a:ext cx="594360" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,7 +1108,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-GB" sz="1100" b="1">
               <a:solidFill>
                 <a:srgbClr val="008000"/>
               </a:solidFill>
@@ -1063,34 +1122,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="OpenSolver10">
+        <xdr:cNvPr id="77" name="OpenSolver10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7548DCB-8F68-4C56-ABDF-DC03B4429826}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7B439-8A54-4FAF-9D3F-DCF85891EF41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
+          <a:stCxn id="75" idx="3"/>
+          <a:endCxn id="76" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2800350" y="2190750"/>
+          <a:off x="4030980" y="2468880"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1124,23 +1183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="OpenSolver11">
+        <xdr:cNvPr id="78" name="OpenSolver11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7207E7-2B68-427A-87A6-68B7DD2AA5C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8085BE1B-0673-48C4-83D4-691BB0B95150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="2063750"/>
+          <a:off x="3840480" y="2341880"/>
           <a:ext cx="381000" cy="254000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1203,7 +1262,92 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="OpenSolverF12:F15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF1D86C-1731-4346-9B78-D4ABC75F0924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4625340" y="2011680"/>
+          <a:ext cx="533400" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="9900CC"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="25400" tIns="25400" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="9900CC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0≤</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1509,150 +1653,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>31</v>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1665,10 +1833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M1048576"/>
+      <selection activeCell="L3" sqref="L3:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,370 +1844,514 @@
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="J2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.6920654559507966</v>
+      </c>
+      <c r="I3" s="14">
+        <v>1.387151911158615</v>
+      </c>
+      <c r="J3" s="14">
+        <v>3.7530802499823039</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1.015747927158372E-2</v>
+      </c>
+      <c r="L3" s="14">
+        <v>0.53979996684938669</v>
+      </c>
+      <c r="M3" s="14">
+        <v>9.5046346075832844E-2</v>
+      </c>
+      <c r="N3" s="14">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="O3" s="14">
+        <v>2.8961654606973748E-3</v>
+      </c>
+      <c r="P3" s="14">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>5.4423870053142309E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>467.04256100921816</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1.000762820243835</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.20245399978011849</v>
+      </c>
+      <c r="I4" s="14">
+        <v>4.9431615148663166</v>
+      </c>
+      <c r="J4" s="14">
+        <v>4.6191184228518978E-3</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.443921173631679E-4</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0.12818127009086311</v>
+      </c>
+      <c r="M4" s="14">
+        <v>2.2855708841234449E-2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>7.4838957516476512E-5</v>
+      </c>
+      <c r="O4" s="14">
+        <v>3.578425417799735E-3</v>
+      </c>
+      <c r="P4" s="14">
+        <v>2.8668157756328577E-4</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>3.5829370375722647E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6797.4060000000009</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.62656182702630758</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1.5960119434696629</v>
+      </c>
+      <c r="J5" s="14">
+        <v>2.3667127534281458E-3</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2.1832435595570132E-3</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.30856308445800101</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3.137899748980999E-2</v>
+      </c>
+      <c r="N5" s="14">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="O5" s="14">
+        <v>0.28596529306378221</v>
+      </c>
+      <c r="P5" s="14">
+        <v>1.9501510541886091E-4</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>9.7205753903836012E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <f>G7</f>
+        <v>5421.2995378701016</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <f>H7/$G$7</f>
+        <v>0.60017611682249938</v>
+      </c>
+      <c r="I6" s="14">
+        <f>I7</f>
+        <v>1.666177596826546</v>
+      </c>
+      <c r="J6" s="14">
+        <f>J7/$G$7</f>
+        <v>1.7866706568443057E-3</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" ref="K6:Q6" si="0">K7/$G$7</f>
+        <v>1.074154253294724E-2</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="0"/>
+        <v>6.2183632729923683E-4</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.3960073147690178E-2</v>
+      </c>
+      <c r="N6" s="14">
+        <f t="shared" si="0"/>
+        <v>4.4882945517118857E-3</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.7351872721376896E-3</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="0"/>
+        <v>1.2205235057779942E-3</v>
+      </c>
+      <c r="Q6" s="14">
+        <f t="shared" si="0"/>
+        <v>5.1284104614026049E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="8">
+        <f>G7/17</f>
+        <v>318.8999728158883</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>5421.2995378701016</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3253.734504770488</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.666177596826546</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.6860768062761053</v>
+      </c>
+      <c r="K7" s="5">
+        <v>58.233119569878909</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3.3711609938181941</v>
+      </c>
+      <c r="M7" s="5">
+        <v>75.681738104205579</v>
+      </c>
+      <c r="N7" s="5">
+        <v>24.332389179020542</v>
+      </c>
+      <c r="O7" s="5">
+        <v>14.828269494428239</v>
+      </c>
+      <c r="P7" s="5">
+        <v>6.6168235178338364</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>278.02649264410138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>10</v>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" cm="1">
+        <f t="array" ref="D12">SUM(D3:D6*G12:G15)</f>
+        <v>4999.9999800000005</v>
+      </c>
+      <c r="E12" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F12">
+        <f t="array" ref="F12:F15">-D3:D6*G12:G15+F3:F6</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="array" ref="H12:H15">B3:B6</f>
+        <v>Pulping_machines_450_109</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <f t="array" ref="D13">SUM(K3:K6*G12:G15)</f>
+        <v>49.999999826402245</v>
+      </c>
+      <c r="E13" s="11">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>467.04256100921816</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <v>Shading_nets_107_0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" cm="1">
+        <f t="array" ref="D14">SUM(L3:L6*G12:G15)</f>
+        <v>279.3190275651375</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>6382.9836200000009</v>
+      </c>
+      <c r="G14" s="12">
+        <v>414.42237999999998</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <v>Shading_trees</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <f t="array" ref="D15">SUM(J3:J6*G12:G15)</f>
+        <v>1042.9927332009579</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1111.3119378701012</v>
+      </c>
+      <c r="G15" s="12">
+        <v>4309.9876000000004</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <v>Biomass_ongrid</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.20245399978011849</v>
-      </c>
-      <c r="I3" s="7">
-        <v>4.9431615148663166</v>
-      </c>
-      <c r="J3" s="7">
-        <v>4.6191184228518978E-3</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1.443921173631679E-4</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>7.4838957516476512E-5</v>
-      </c>
-      <c r="N3" s="7">
-        <v>3.578425417799735E-3</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0.7056420436128974</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1.587206880765049</v>
-      </c>
-      <c r="J4" s="7">
-        <v>3.892082331818528</v>
-      </c>
-      <c r="K4" s="7">
-        <v>5.3956249576003756E-4</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>4.9625109386397526E-3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2.3097625016816892E-3</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.62656182702630758</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1.5960119434696629</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2.3667127534281458E-3</v>
-      </c>
-      <c r="K5" s="7">
-        <v>5.0646282579691615E-4</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>6.1807720339857042E-4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>9.1856733160966542E-4</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3112.0048745051031</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1.7420601048165909</v>
-      </c>
-      <c r="J6" s="7">
-        <v>9.3408007702673785</v>
-      </c>
-      <c r="K6" s="7">
-        <v>4.1111336977919564</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>24.33238917900599</v>
-      </c>
-      <c r="N6" s="7">
-        <v>10.475744214048969</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <f>F3*P3+F4*P4+F5*P5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <f>K3*P3+K4*P4+K5*P5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <f>L3*P3+L4*P4+L5*P5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <f>J3*P3+J4*P4+J5*P5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="I16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
-        <f>P3*I3+P4*I4+P5*I5</f>
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>27</v>
+      <c r="D19">
+        <f t="array" ref="D19">SUM(H3:H6*G12:G15)</f>
+        <v>3037.1391838999944</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5603465-9C49-4B07-935D-99BB01551557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DACAAE-103D-4254-B9B8-B0CF99A9ADC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>Scenario</t>
   </si>
@@ -206,12 +206,6 @@
     <t>M kSh</t>
   </si>
   <si>
-    <t>Shading_nets_107_0.45</t>
-  </si>
-  <si>
-    <t>Shading_trees</t>
-  </si>
-  <si>
     <t>17 plants</t>
   </si>
   <si>
@@ -231,6 +225,21 @@
   </si>
   <si>
     <t>kton</t>
+  </si>
+  <si>
+    <t>Ecopulpers</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Shading nets</t>
+  </si>
+  <si>
+    <t>Shading trees</t>
+  </si>
+  <si>
+    <t>Payback time</t>
   </si>
 </sst>
 </file>
@@ -239,8 +248,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0;0;\-"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0;0;\-"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -291,7 +300,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -314,11 +323,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,15 +380,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1753,7 +1788,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>22</v>
@@ -1765,7 +1800,7 @@
         <v>17</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>22</v>
@@ -1835,33 +1870,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:L6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1875,10 +1912,10 @@
         <v>30</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>8</v>
@@ -1935,7 +1972,7 @@
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>22</v>
@@ -1947,7 +1984,7 @@
         <v>17</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>22</v>
@@ -1961,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2014,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
@@ -2067,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -2120,10 +2157,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -2181,13 +2218,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8">
         <f>G7/17</f>
@@ -2202,34 +2239,34 @@
       <c r="G7" s="13">
         <v>5421.2995378701016</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="13">
         <v>3253.734504770488</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="13">
         <v>1.666177596826546</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="13">
         <v>9.6860768062761053</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="13">
         <v>58.233119569878909</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="13">
         <v>3.3711609938181941</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="13">
         <v>75.681738104205579</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="13">
         <v>24.332389179020542</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="13">
         <v>14.828269494428239</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="13">
         <v>6.6168235178338364</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="13">
         <v>278.02649264410138</v>
       </c>
     </row>
@@ -2252,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" cm="1">
         <f t="array" ref="D12">SUM(D3:D6*G12:G15)</f>
@@ -2270,7 +2307,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f t="array" ref="H12:H15">B3:B6</f>
-        <v>Pulping_machines_450_109</v>
+        <v>Ecopulpers</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,7 +2315,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <f t="array" ref="D13">SUM(K3:K6*G12:G15)</f>
@@ -2294,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="str">
-        <v>Shading_nets_107_0.45</v>
+        <v>Shading nets</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" cm="1">
         <f t="array" ref="D14">SUM(L3:L6*G12:G15)</f>
@@ -2318,7 +2355,7 @@
         <v>414.42237999999998</v>
       </c>
       <c r="H14" s="2" t="str">
-        <v>Shading_trees</v>
+        <v>Shading trees</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2363,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <f t="array" ref="D15">SUM(J3:J6*G12:G15)</f>
@@ -2342,7 +2379,7 @@
         <v>4309.9876000000004</v>
       </c>
       <c r="H15" s="2" t="str">
-        <v>Biomass_ongrid</v>
+        <v>Biomass</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DACAAE-103D-4254-B9B8-B0CF99A9ADC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95827FE7-DDA9-4852-BB65-C584E7F88B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">main!$G$12:$G$15</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">main!$G$13:$G$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -34,10 +34,10 @@
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">main!$D$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">main!$D$13</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">main!$D$13:$D$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">main!$F$12:$F$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">main!$D$14:$D$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">main!$F$13:$F$16</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
@@ -45,16 +45,16 @@
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">main!$D$19</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">main!$D$20</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">main!$E$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">main!$E$13</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">main!$E$13:$E$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">main!$E$14:$E$16</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>Scenario</t>
   </si>
@@ -164,15 +164,9 @@
     <t>m3/FU</t>
   </si>
   <si>
-    <t>Saving</t>
-  </si>
-  <si>
     <t>1 M Ksh investment</t>
   </si>
   <si>
-    <t>Pulping_machines_450_109</t>
-  </si>
-  <si>
     <t>Biomass_ongrid</t>
   </si>
   <si>
@@ -240,6 +234,66 @@
   </si>
   <si>
     <t>Payback time</t>
+  </si>
+  <si>
+    <t>PROI</t>
+  </si>
+  <si>
+    <t>PPBT</t>
+  </si>
+  <si>
+    <t>Ecopulpers_450_110</t>
+  </si>
+  <si>
+    <t>Intervetion</t>
+  </si>
+  <si>
+    <t>_450_109</t>
+  </si>
+  <si>
+    <t>Pulping_machines</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Import Saving</t>
+  </si>
+  <si>
+    <t>Import Investment</t>
+  </si>
+  <si>
+    <t>Water Total Impact</t>
+  </si>
+  <si>
+    <t>Emission Total Impact</t>
+  </si>
+  <si>
+    <t>=Inv+usefullife*Sav</t>
+  </si>
+  <si>
+    <t>Land Total Impact</t>
+  </si>
+  <si>
+    <t>Import Total Impact</t>
+  </si>
+  <si>
+    <t>Workforce Total Impact</t>
+  </si>
+  <si>
+    <t>IMPACT = IMPACT_of_investment + IMPACT_of_operation*USEFUL_LIFE_of_technology</t>
+  </si>
+  <si>
+    <t>Capital Saving</t>
+  </si>
+  <si>
+    <t>ha/FU</t>
+  </si>
+  <si>
+    <t>Capital Investment</t>
+  </si>
+  <si>
+    <t>Capital Total Impact</t>
   </si>
 </sst>
 </file>
@@ -274,18 +328,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -351,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,16 +418,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,6 +436,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,13 +463,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -502,13 +551,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -584,13 +633,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1361440</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>231455</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>48260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -677,13 +726,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -759,13 +808,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -844,13 +893,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -905,13 +954,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -992,13 +1041,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1074,13 +1123,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1159,13 +1208,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1220,13 +1269,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>147320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1307,13 +1356,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1688,175 +1737,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.21875" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" customWidth="1"/>
+    <col min="23" max="23" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v>Pulping_machines_450_109</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5"/>
+      <c r="W3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W5" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1868,20 +2034,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1896,50 +2062,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="G1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="I1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,47 +2116,47 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="K2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>22</v>
+      <c r="O2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,397 +2164,450 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="8">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
         <v>275.58999999999997</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>0.95999991986900568</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>0.6920654559507966</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>1.387151911158615</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>3.7530802499823039</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>1.015747927158372E-2</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>0.53979996684938669</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <v>9.5046346075832844E-2</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>4.2535808170214304E-3</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <v>2.8961654606973748E-3</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <v>1.174013130366802E-3</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="13">
         <v>5.4423870053142309E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>467.04256100921816</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1.000762820243835</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.20245399978011849</v>
-      </c>
-      <c r="I4" s="14">
-        <v>4.9431615148663166</v>
-      </c>
-      <c r="J4" s="14">
-        <v>4.6191184228518978E-3</v>
-      </c>
-      <c r="K4" s="14">
-        <v>1.443921173631679E-4</v>
-      </c>
-      <c r="L4" s="14">
-        <v>0.12818127009086311</v>
-      </c>
-      <c r="M4" s="14">
-        <v>2.2855708841234449E-2</v>
-      </c>
-      <c r="N4" s="14">
-        <v>7.4838957516476512E-5</v>
-      </c>
-      <c r="O4" s="14">
-        <v>3.578425417799735E-3</v>
-      </c>
-      <c r="P4" s="14">
-        <v>2.8668157756328577E-4</v>
-      </c>
-      <c r="Q4" s="14">
-        <v>3.5829370375722647E-2</v>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.6920654559507966</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1.387151911158615</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3.7530802499823039</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1.015747927158372E-2</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.53979996684938669</v>
+      </c>
+      <c r="M4" s="13">
+        <v>9.5046346075832844E-2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2.8961654606973748E-3</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>5.4423870053142309E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>6797.4060000000009</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1.00000015925616</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.62656182702630758</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1.5960119434696629</v>
-      </c>
-      <c r="J5" s="14">
-        <v>2.3667127534281458E-3</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2.1832435595570132E-3</v>
-      </c>
-      <c r="L5" s="14">
-        <v>0.30856308445800101</v>
-      </c>
-      <c r="M5" s="14">
-        <v>3.137899748980999E-2</v>
-      </c>
-      <c r="N5" s="14">
-        <v>6.1807718884665519E-4</v>
-      </c>
-      <c r="O5" s="14">
-        <v>0.28596529306378221</v>
-      </c>
-      <c r="P5" s="14">
-        <v>1.9501510541886091E-4</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>9.7205753903836012E-2</v>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>467.04256100921816</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.000762820243835</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.20245399978011849</v>
+      </c>
+      <c r="I5" s="13">
+        <v>4.9431615148663166</v>
+      </c>
+      <c r="J5" s="13">
+        <v>4.6191184228518978E-3</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1.443921173631679E-4</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.12818127009086311</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2.2855708841234449E-2</v>
+      </c>
+      <c r="N5" s="13">
+        <v>7.4838957516476512E-5</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3.578425417799735E-3</v>
+      </c>
+      <c r="P5" s="13">
+        <v>2.8668157756328577E-4</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>3.5829370375722647E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <f>G7</f>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6797.4060000000009</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.62656182702630758</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1.5960119434696629</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2.3667127534281458E-3</v>
+      </c>
+      <c r="K6" s="13">
+        <v>2.1832435595570132E-3</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.30856308445800101</v>
+      </c>
+      <c r="M6" s="13">
+        <v>3.137899748980999E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.28596529306378221</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1.9501510541886091E-4</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>9.7205753903836012E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <f>G8</f>
         <v>5421.2995378701016</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="14">
-        <f>H7/$G$7</f>
+      <c r="H7" s="13">
+        <f>H8/$G$8</f>
         <v>0.60017611682249938</v>
       </c>
-      <c r="I6" s="14">
-        <f>I7</f>
+      <c r="I7" s="13">
+        <f>I8</f>
         <v>1.666177596826546</v>
       </c>
-      <c r="J6" s="14">
-        <f>J7/$G$7</f>
+      <c r="J7" s="13">
+        <f>J8/$G$8</f>
         <v>1.7866706568443057E-3</v>
       </c>
-      <c r="K6" s="14">
-        <f t="shared" ref="K6:Q6" si="0">K7/$G$7</f>
+      <c r="K7" s="13">
+        <f t="shared" ref="K7:Q7" si="0">K8/$G$8</f>
         <v>1.074154253294724E-2</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L7" s="13">
         <f t="shared" si="0"/>
         <v>6.2183632729923683E-4</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M7" s="13">
         <f t="shared" si="0"/>
         <v>1.3960073147690178E-2</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N7" s="13">
         <f t="shared" si="0"/>
         <v>4.4882945517118857E-3</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O7" s="13">
         <f t="shared" si="0"/>
         <v>2.7351872721376896E-3</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P7" s="13">
         <f t="shared" si="0"/>
         <v>1.2205235057779942E-3</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q7" s="13">
         <f t="shared" si="0"/>
         <v>5.1284104614026049E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="8">
-        <f>G7/17</f>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7">
+        <f>G8/17</f>
         <v>318.8999728158883</v>
       </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
         <v>5421.2995378701016</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H8" s="12">
         <v>3253.734504770488</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I8" s="12">
         <v>1.666177596826546</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J8" s="12">
         <v>9.6860768062761053</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="12">
         <v>58.233119569878909</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L8" s="12">
         <v>3.3711609938181941</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M8" s="12">
         <v>75.681738104205579</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N8" s="12">
         <v>24.332389179020542</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O8" s="12">
         <v>14.828269494428239</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P8" s="12">
         <v>6.6168235178338364</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q8" s="12">
         <v>278.02649264410138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" cm="1">
-        <f t="array" ref="D12">SUM(D3:D6*G12:G15)</f>
-        <v>4999.9999800000005</v>
-      </c>
-      <c r="E12" s="11">
-        <v>5000</v>
-      </c>
-      <c r="F12">
-        <f t="array" ref="F12:F15">-D3:D6*G12:G15+F3:F6</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>275.58999999999997</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f t="array" ref="H12:H15">B3:B6</f>
-        <v>Ecopulpers</v>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <f t="array" ref="D13">SUM(K3:K6*G12:G15)</f>
-        <v>49.999999826402245</v>
-      </c>
-      <c r="E13" s="11">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="D13" t="e" cm="1">
+        <f t="array" ref="D13">SUM(D3:D7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5000</v>
       </c>
       <c r="F13">
-        <v>467.04256100921816</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
+        <f t="array" ref="F13:F16">-D3:D7*G13:G16+F3:F7</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>275.58999999999997</v>
       </c>
       <c r="H13" s="2" t="str">
-        <v>Shading nets</v>
+        <f t="array" ref="H13:H16">B3:B7</f>
+        <v>Ecopulpers_450_110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" cm="1">
-        <f t="array" ref="D14">SUM(L3:L6*G12:G15)</f>
-        <v>279.3190275651375</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="array" ref="D14">SUM(K3:K7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10">
+        <v>50</v>
       </c>
       <c r="F14">
-        <v>6382.9836200000009</v>
-      </c>
-      <c r="G14" s="12">
-        <v>414.42237999999998</v>
+        <v>275.58999999999997</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
       </c>
       <c r="H14" s="2" t="str">
-        <v>Shading trees</v>
+        <v>Ecopulpers</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="e" cm="1">
+        <f t="array" ref="D15">SUM(L3:L7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>52.620181009218186</v>
+      </c>
+      <c r="G15" s="11">
+        <v>414.42237999999998</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <v>Shading nets</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15">
-        <f t="array" ref="D15">SUM(J3:J6*G12:G15)</f>
-        <v>1042.9927332009579</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1111.3119378701012</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="array" ref="D16">SUM(J3:J7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2487.4184000000005</v>
+      </c>
+      <c r="G16" s="11">
         <v>4309.9876000000004</v>
       </c>
-      <c r="H15" s="2" t="str">
-        <v>Biomass</v>
+      <c r="H16" s="2" t="str">
+        <v>Shading trees</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <f t="array" ref="D19">SUM(H3:H6*G12:G15)</f>
-        <v>3037.1391838999944</v>
+      <c r="D20" t="e">
+        <f t="array" ref="D20">SUM(H3:H7*G13:G16)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95827FE7-DDA9-4852-BB65-C584E7F88B40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FA189-C980-4BD5-9706-3E2DF127A372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -1739,42 +1739,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.77734375" customWidth="1"/>
-    <col min="23" max="23" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
@@ -1851,7 +1851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="W5" s="17" t="s">
         <v>57</v>
       </c>
@@ -2036,32 +2036,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.21875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="14"/>
@@ -2108,7 +2108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>5.4423870053142309E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>5.4423870053142309E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>3.5829370375722647E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>9.7205753903836012E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>5.1284104614026049E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>278.02649264410138</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>Ecopulpers_450_110</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>Ecopulpers</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>Shading nets</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>Shading trees</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -8,65 +8,87 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FA189-C980-4BD5-9706-3E2DF127A372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70292D0-6953-475D-AE77-C43548A6104D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
-    <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="main" sheetId="2" r:id="rId2"/>
+    <sheet name="input (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId2"/>
+    <sheet name="main" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="OpenSolver_LinearityCheck" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">main!$G$13:$G$16</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">main!$G$13:$G$16</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">main!$D$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">main!$D$14:$D$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">main!$F$13:$F$16</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">main!$D$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">main!$D$14:$D$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">main!$F$13:$F$16</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">main!$D$20</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">main!$D$20</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">main!$E$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">main!$E$14:$E$16</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">main!$E$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">main!$E$14:$E$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.05</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
   <si>
     <t>Scenario</t>
   </si>
@@ -1736,11 +1758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E1D07-4FAD-484F-9367-DB9884D4EC4D}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="35" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,6 +2023,288 @@
         <v>0</v>
       </c>
       <c r="V3" s="5"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W5" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v>Pulping_machines_450_109</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5"/>
       <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +2336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
   <dimension ref="A1:Q20"/>
   <sheetViews>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -8,87 +8,131 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70292D0-6953-475D-AE77-C43548A6104D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC45B6AD-BF92-429C-9809-5882A31D9960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
-    <sheet name="input (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="input" sheetId="1" r:id="rId2"/>
-    <sheet name="main" sheetId="2" r:id="rId3"/>
+    <sheet name="input" sheetId="5" r:id="rId1"/>
+    <sheet name="input (3)" sheetId="4" r:id="rId2"/>
+    <sheet name="input (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="input0" sheetId="1" r:id="rId4"/>
+    <sheet name="main" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="3" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="4" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="4" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">main!$G$13:$G$16</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">input0!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">main!$G$13:$G$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">main!$D$13</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">main!$D$14:$D$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">main!$F$13:$F$16</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">input0!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">main!$D$13</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">input0!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">main!$D$14:$D$16</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">main!$F$13:$F$16</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">main!$D$20</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">input0!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">main!$D$20</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">main!$E$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">main!$E$14:$E$16</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">input0!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">main!$E$13</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">input0!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">main!$E$14:$E$16</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -130,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="62">
   <si>
     <t>Scenario</t>
   </si>
@@ -1758,11 +1802,605 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E1D07-4FAD-484F-9367-DB9884D4EC4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FED861-E206-4743-9355-505EE896BC8F}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="35" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v>Pulping_machines_450_109</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W5" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFF4C5D-C6A9-435C-9F9F-B239C36DB161}">
+  <dimension ref="A1:AB5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>_xlfn.CONCAT(A3,B3)</f>
+        <v>Pulping_machines_450_109</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W5" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E1D07-4FAD-484F-9367-DB9884D4EC4D}">
+  <dimension ref="A1:AB6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,8 +2668,233 @@
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
     </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>455</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W5" s="17"/>
+      <c r="B5">
+        <v>460</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2039,12 +2902,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7144A5-05C5-46C4-AE10-A8C13BF2BCC8}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="61" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" topLeftCell="K1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,7 +3056,7 @@
         <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>20</v>
@@ -2336,7 +3199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
   <dimension ref="A1:Q20"/>
   <sheetViews>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC45B6AD-BF92-429C-9809-5882A31D9960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC3217-1E3B-4BA4-86FC-5FB24D8433FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="63">
   <si>
     <t>Scenario</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>Capital Total Impact</t>
+  </si>
+  <si>
+    <t>Intervention</t>
   </si>
 </sst>
 </file>
@@ -1803,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FED861-E206-4743-9355-505EE896BC8F}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,10 +1923,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>48</v>
@@ -2004,93 +2007,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>_xlfn.CONCAT(A3,B3)</f>
-        <v>Pulping_machines_450_109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W5" s="17"/>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FC3217-1E3B-4BA4-86FC-5FB24D8433FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D62C85-AB0C-4336-80B7-574F18B5DA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="input (2)" sheetId="3" r:id="rId3"/>
     <sheet name="input0" sheetId="1" r:id="rId4"/>
     <sheet name="main" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="66">
   <si>
     <t>Scenario</t>
   </si>
@@ -363,6 +364,15 @@
   </si>
   <si>
     <t>Intervention</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>sav/inv</t>
+  </si>
+  <si>
+    <t>1/proi</t>
   </si>
 </sst>
 </file>
@@ -1806,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FED861-E206-4743-9355-505EE896BC8F}">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,31 +1830,32 @@
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
@@ -1860,68 +1871,71 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1950,17 +1964,17 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1971,14 +1985,14 @@
         <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1989,14 +2003,14 @@
         <v>20</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="Z2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2006,9 +2020,12 @@
       <c r="AB2" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W4" s="17"/>
+      <c r="AC2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3700,4 +3717,138 @@
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF2965D-1EA1-4F4E-A14D-11727EE581CD}">
+  <dimension ref="A2:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CVX_Kenya/Optimization/optimization.xlsx
+++ b/CVX_Kenya/Optimization/optimization.xlsx
@@ -5,135 +5,112 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\CVX_Kenya\Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\CVX_Kenya\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D62C85-AB0C-4336-80B7-574F18B5DA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C3AAE2-C64C-43C8-BDE2-C370D420C253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E06427C0-47F7-42FD-AC5A-4E340D5BBA6E}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="5" r:id="rId1"/>
-    <sheet name="input (3)" sheetId="4" r:id="rId2"/>
-    <sheet name="input (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="results" sheetId="4" r:id="rId2"/>
+    <sheet name="main" sheetId="2" r:id="rId3"/>
     <sheet name="input0" sheetId="1" r:id="rId4"/>
-    <sheet name="main" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
+    <definedName name="OpenSolver_ChosenSolver" localSheetId="3" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="2" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_ChosenSolver" localSheetId="1" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="3" hidden="1">CBC</definedName>
-    <definedName name="OpenSolver_ChosenSolver" localSheetId="4" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="OpenSolver_DualsNewSheet" localSheetId="3" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="2" hidden="1">0</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="OpenSolver_DualsNewSheet" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="OpenSolver_LinearityCheck" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="OpenSolver_LinearityCheck" localSheetId="2" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="3" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="2" hidden="1">1</definedName>
     <definedName name="OpenSolver_UpdateSensitivity" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="OpenSolver_UpdateSensitivity" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">input0!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">main!$G$13:$G$16</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">main!$G$13:$G$16</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">results!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">input0!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">main!$D$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">main!$D$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">results!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">input0!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">main!$D$14:$D$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">main!$F$13:$F$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">main!$D$14:$D$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">results!#REF!</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">main!$F$13:$F$16</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">input0!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">main!$D$20</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">main!$D$20</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">results!#REF!</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">input0!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">main!$E$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">main!$E$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">results!#REF!</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">input!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'input (2)'!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'input (3)'!#REF!</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">input0!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">main!$E$14:$E$16</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">main!$E$14:$E$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">results!#REF!</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.05</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="70">
   <si>
     <t>Scenario</t>
   </si>
@@ -354,9 +331,6 @@
     <t>Capital Saving</t>
   </si>
   <si>
-    <t>ha/FU</t>
-  </si>
-  <si>
     <t>Capital Investment</t>
   </si>
   <si>
@@ -369,10 +343,25 @@
     <t>Saving</t>
   </si>
   <si>
-    <t>sav/inv</t>
-  </si>
-  <si>
-    <t>1/proi</t>
+    <t>_prod_to_+5%</t>
+  </si>
+  <si>
+    <t>_prod_to_+4%</t>
+  </si>
+  <si>
+    <t>_prod_to_+3%</t>
+  </si>
+  <si>
+    <t>_prod_to_+2%</t>
+  </si>
+  <si>
+    <t>_prod_to_+1%</t>
+  </si>
+  <si>
+    <t>_price_petroleum</t>
+  </si>
+  <si>
+    <t>Shading_nets</t>
   </si>
 </sst>
 </file>
@@ -1818,44 +1807,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FED861-E206-4743-9355-505EE896BC8F}">
   <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showGridLines="0" topLeftCell="R1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
@@ -1872,7 +1861,7 @@
         <v>28</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>42</v>
@@ -1914,7 +1903,7 @@
         <v>26</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>51</v>
@@ -1932,15 +1921,15 @@
         <v>56</v>
       </c>
       <c r="AC1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>48</v>
@@ -2024,7 +2013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="X4" s="17"/>
     </row>
   </sheetData>
@@ -2035,45 +2024,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFF4C5D-C6A9-435C-9F9F-B239C36DB161}">
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
@@ -2089,68 +2077,71 @@
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -2179,17 +2170,17 @@
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2200,14 +2191,14 @@
         <v>20</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="T2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2218,14 +2209,14 @@
         <v>20</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="Z2" s="3" t="s">
         <v>20</v>
       </c>
@@ -2235,17 +2226,20 @@
       <c r="AB2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="AC2" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>_xlfn.CONCAT(A3,B3)</f>
-        <v>Pulping_machines_450_109</v>
+        <v>Ecopulpers_prod_to_+5%</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -2259,581 +2253,1482 @@
       <c r="G3" s="7">
         <v>0</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5">
-        <v>0</v>
-      </c>
-      <c r="W3" s="5">
-        <v>0</v>
-      </c>
-      <c r="X3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>0</v>
+      <c r="H3" s="13">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2.1317300824448471</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2.2205523545624111</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.45033840249043039</v>
+      </c>
+      <c r="L3" s="13">
+        <v>3.7824328574351971</v>
+      </c>
+      <c r="M3" s="13">
+        <v>1.520370205980726E-3</v>
+      </c>
+      <c r="N3" s="13">
+        <v>1.3496787890326229</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.18760534608736629</v>
+      </c>
+      <c r="P3" s="13">
+        <v>7.6368795242160559E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.2406581309624016</v>
+      </c>
+      <c r="R3" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="S3" s="13">
+        <v>1.9797964305325881E-3</v>
+      </c>
+      <c r="T3" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0.28020749241113663</v>
+      </c>
+      <c r="V3" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+      <c r="W3" s="13">
+        <v>0.50728149595670402</v>
+      </c>
+      <c r="X3" s="13">
+        <v>37.828582155168988</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>1.718349849033984E-2</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>13.4979619034566</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>2.1562609532848001</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>2.461005179677159</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>1.2709694483783101</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="W5" s="17"/>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C17" si="0">_xlfn.CONCAT(A4,B4)</f>
+        <v>Ecopulpers_prod_to_+4%</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1.7053847694769499</v>
+      </c>
+      <c r="J4" s="13">
+        <v>1.7764426164844409</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.56292277089084264</v>
+      </c>
+      <c r="L4" s="13">
+        <v>3.772717097861459</v>
+      </c>
+      <c r="M4" s="13">
+        <v>1.216296665006666E-3</v>
+      </c>
+      <c r="N4" s="13">
+        <v>1.0797434768173839</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.1500843386165798</v>
+      </c>
+      <c r="P4" s="13">
+        <v>6.1095061246305697E-2</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.1925265840254724</v>
+      </c>
+      <c r="R4" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="S4" s="13">
+        <v>1.9797964305325881E-3</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0.28020749241113663</v>
+      </c>
+      <c r="V4" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+      <c r="W4" s="13">
+        <v>0.50728149595670402</v>
+      </c>
+      <c r="X4" s="13">
+        <v>37.731424559431623</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>1.414276308059925E-2</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>10.79860878130421</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1.7810508785769339</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>1.9796897103078659</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>1.1182321084197611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_prod_to_+3%</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1.2790391063317661</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1.3323325136384321</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.75056338396270628</v>
+      </c>
+      <c r="L5" s="13">
+        <v>3.7630013302550651</v>
+      </c>
+      <c r="M5" s="13">
+        <v>9.1222287665004842E-4</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.80980794178321958</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.1125633004121482</v>
+      </c>
+      <c r="P5" s="13">
+        <v>4.582131514325738E-2</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.14439499797299499</v>
+      </c>
+      <c r="R5" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="S5" s="13">
+        <v>1.9797964305325881E-3</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0.28020749241113663</v>
+      </c>
+      <c r="V5" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+      <c r="W5" s="13">
+        <v>0.50728149595670402</v>
+      </c>
+      <c r="X5" s="13">
+        <v>37.634266883367673</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>1.110202519703307E-2</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>8.0992534309625626</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>1.405840496532619</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>1.498373849783093</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0.96549464738927782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_prod_to_+2%</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.85269308928400278</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.88822204214387313</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1.1258446115414249</v>
+      </c>
+      <c r="L6" s="13">
+        <v>3.7532855546742212</v>
+      </c>
+      <c r="M6" s="13">
+        <v>6.081488318159245E-4</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.53987218404654413</v>
+      </c>
+      <c r="O6" s="13">
+        <v>7.5042231008410454E-2</v>
+      </c>
+      <c r="P6" s="13">
+        <v>3.054755600169301E-2</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>9.6263371873646975E-2</v>
+      </c>
+      <c r="R6" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="S6" s="13">
+        <v>1.9797964305325881E-3</v>
+      </c>
+      <c r="T6" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="U6" s="13">
+        <v>0.28020749241113663</v>
+      </c>
+      <c r="V6" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+      <c r="W6" s="13">
+        <v>0.50728149595670402</v>
+      </c>
+      <c r="X6" s="13">
+        <v>37.537109127559233</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>8.0612847486918326E-3</v>
+      </c>
+      <c r="Z6" s="13">
+        <v>5.3998958535958081</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>1.0306298024952409</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>1.0170575887896121</v>
+      </c>
+      <c r="AC6" s="13">
+        <v>0.81275705597363412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_prod_to_+1%</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.42634672019630671</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.44411120394101988</v>
+      </c>
+      <c r="K7" s="13">
+        <v>2.2516882959178961</v>
+      </c>
+      <c r="L7" s="13">
+        <v>3.7435697710461682</v>
+      </c>
+      <c r="M7" s="13">
+        <v>3.0407454141823109E-4</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.26993620349094272</v>
+      </c>
+      <c r="O7" s="13">
+        <v>3.7521130871027708E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1.5273784520104529E-2</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>4.8131705727428198E-2</v>
+      </c>
+      <c r="R7" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="S7" s="13">
+        <v>1.9797964305325881E-3</v>
+      </c>
+      <c r="T7" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0.28020749241113663</v>
+      </c>
+      <c r="V7" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+      <c r="W7" s="13">
+        <v>0.50728149595670402</v>
+      </c>
+      <c r="X7" s="13">
+        <v>37.439951291278703</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>5.0205418447148986E-3</v>
+      </c>
+      <c r="Z7" s="13">
+        <v>2.700536048039794</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>0.65541880112141371</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0.53574092732742429</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>0.6600193411577493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_price_petroleum</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_price_petroleum</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_price_petroleum</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_price_petroleum</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Ecopulpers_price_petroleum</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Shading_nets_prod_to_+5%</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Shading_nets_prod_to_+4%</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Shading_nets_prod_to_+3%</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Shading_nets_prod_to_+2%</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Shading_nets_prod_to_+1%</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47E1D07-4FAD-484F-9367-DB9884D4EC4D}">
-  <dimension ref="A1:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B2" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="16"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="O1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.6920654559507966</v>
+      </c>
+      <c r="I3" s="13">
+        <v>1.387151911158615</v>
+      </c>
+      <c r="J3" s="13">
+        <v>3.7530802499823039</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1.015747927158372E-2</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.53979996684938669</v>
+      </c>
+      <c r="M3" s="13">
+        <v>9.5046346075832844E-2</v>
+      </c>
+      <c r="N3" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="O3" s="13">
+        <v>2.8961654606973748E-3</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.95999991986900568</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.6920654559507966</v>
+      </c>
+      <c r="I4" s="13">
+        <v>1.387151911158615</v>
+      </c>
+      <c r="J4" s="13">
+        <v>3.7530802499823039</v>
+      </c>
+      <c r="K4" s="13">
+        <v>1.015747927158372E-2</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.53979996684938669</v>
+      </c>
+      <c r="M4" s="13">
+        <v>9.5046346075832844E-2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>4.2535808170214304E-3</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2.8961654606973748E-3</v>
+      </c>
+      <c r="P4" s="13">
+        <v>1.174013130366802E-3</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>5.4423870053142309E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>467.04256100921816</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.000762820243835</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.20245399978011849</v>
+      </c>
+      <c r="I5" s="13">
+        <v>4.9431615148663166</v>
+      </c>
+      <c r="J5" s="13">
+        <v>4.6191184228518978E-3</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1.443921173631679E-4</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.12818127009086311</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2.2855708841234449E-2</v>
+      </c>
+      <c r="N5" s="13">
+        <v>7.4838957516476512E-5</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3.578425417799735E-3</v>
+      </c>
+      <c r="P5" s="13">
+        <v>2.8668157756328577E-4</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>3.5829370375722647E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>6797.4060000000009</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1.00000015925616</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.62656182702630758</v>
+      </c>
+      <c r="I6" s="13">
+        <v>1.5960119434696629</v>
+      </c>
+      <c r="J6" s="13">
+        <v>2.3667127534281458E-3</v>
+      </c>
+      <c r="K6" s="13">
+        <v>2.1832435595570132E-3</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.30856308445800101</v>
+      </c>
+      <c r="M6" s="13">
+        <v>3.137899748980999E-2</v>
+      </c>
+      <c r="N6" s="13">
+        <v>6.1807718884665519E-4</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.28596529306378221</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1.9501510541886091E-4</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>9.7205753903836012E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <f>G8</f>
+        <v>5421.2995378701016</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <f>H8/$G$8</f>
+        <v>0.60017611682249938</v>
+      </c>
+      <c r="I7" s="13">
+        <f>I8</f>
+        <v>1.666177596826546</v>
+      </c>
+      <c r="J7" s="13">
+        <f>J8/$G$8</f>
+        <v>1.7866706568443057E-3</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" ref="K7:Q7" si="0">K8/$G$8</f>
+        <v>1.074154253294724E-2</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="0"/>
+        <v>6.2183632729923683E-4</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3960073147690178E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="0"/>
+        <v>4.4882945517118857E-3</v>
+      </c>
+      <c r="O7" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7351872721376896E-3</v>
+      </c>
+      <c r="P7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2205235057779942E-3</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1284104614026049E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7">
+        <f>G8/17</f>
+        <v>318.8999728158883</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>5421.2995378701016</v>
+      </c>
+      <c r="H8" s="12">
+        <v>3253.734504770488</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1.666177596826546</v>
+      </c>
+      <c r="J8" s="12">
+        <v>9.6860768062761053</v>
+      </c>
+      <c r="K8" s="12">
+        <v>58.233119569878909</v>
+      </c>
+      <c r="L8" s="12">
+        <v>3.3711609938181941</v>
+      </c>
+      <c r="M8" s="12">
+        <v>75.681738104205579</v>
+      </c>
+      <c r="N8" s="12">
+        <v>24.332389179020542</v>
+      </c>
+      <c r="O8" s="12">
+        <v>14.828269494428239</v>
+      </c>
+      <c r="P8" s="12">
+        <v>6.6168235178338364</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>278.02649264410138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="e" cm="1">
+        <f t="array" ref="D13">SUM(D3:D7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5000</v>
+      </c>
+      <c r="F13">
+        <f t="array" ref="F13:F16">-D3:D7*G13:G16+F3:F7</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="array" ref="H13:H16">B3:B7</f>
+        <v>Ecopulpers_450_110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="e">
+        <f t="array" ref="D14">SUM(K3:K7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="10">
         <v>50</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>61</v>
+      <c r="F14">
+        <v>275.58999999999997</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <v>Ecopulpers</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>20</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="e" cm="1">
+        <f t="array" ref="D15">SUM(L3:L7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>52.620181009218186</v>
+      </c>
+      <c r="G15" s="11">
+        <v>414.42237999999998</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <v>Shading nets</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>_xlfn.CONCAT(A3,B3)</f>
-        <v>Pulping_machines_450_109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
-      <c r="S3" s="5">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
-        <v>0</v>
-      </c>
-      <c r="V3" s="5"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="e">
+        <f t="array" ref="D16">SUM(J3:J7*G13:G16)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2487.4184000000005</v>
+      </c>
+      <c r="G16" s="11">
+        <v>4309.9876000000004</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <v>Shading trees</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>455</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>460</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5" s="17">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="e">
+        <f t="array" ref="D20">SUM(H3:H7*G13:G16)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2842,41 +3737,41 @@
   <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScale="94" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="16"/>
       <c r="B1" s="3"/>
       <c r="C1" s="16"/>
@@ -2932,7 +3827,7 @@
         <v>26</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>51</v>
@@ -2950,10 +3845,10 @@
         <v>56</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
@@ -3039,7 +3934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
@@ -3122,7 +4017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="W5" s="17" t="s">
         <v>57</v>
       </c>
@@ -3132,723 +4027,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C3AB91-274C-483E-90B3-FB1858A46850}">
-  <dimension ref="A1:Q20"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>275.58999999999997</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0.95999991986900568</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0.6920654559507966</v>
-      </c>
-      <c r="I3" s="13">
-        <v>1.387151911158615</v>
-      </c>
-      <c r="J3" s="13">
-        <v>3.7530802499823039</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1.015747927158372E-2</v>
-      </c>
-      <c r="L3" s="13">
-        <v>0.53979996684938669</v>
-      </c>
-      <c r="M3" s="13">
-        <v>9.5046346075832844E-2</v>
-      </c>
-      <c r="N3" s="13">
-        <v>4.2535808170214304E-3</v>
-      </c>
-      <c r="O3" s="13">
-        <v>2.8961654606973748E-3</v>
-      </c>
-      <c r="P3" s="13">
-        <v>1.174013130366802E-3</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>5.4423870053142309E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>275.58999999999997</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0.95999991986900568</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0.6920654559507966</v>
-      </c>
-      <c r="I4" s="13">
-        <v>1.387151911158615</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3.7530802499823039</v>
-      </c>
-      <c r="K4" s="13">
-        <v>1.015747927158372E-2</v>
-      </c>
-      <c r="L4" s="13">
-        <v>0.53979996684938669</v>
-      </c>
-      <c r="M4" s="13">
-        <v>9.5046346075832844E-2</v>
-      </c>
-      <c r="N4" s="13">
-        <v>4.2535808170214304E-3</v>
-      </c>
-      <c r="O4" s="13">
-        <v>2.8961654606973748E-3</v>
-      </c>
-      <c r="P4" s="13">
-        <v>1.174013130366802E-3</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>5.4423870053142309E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>467.04256100921816</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1.000762820243835</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0.20245399978011849</v>
-      </c>
-      <c r="I5" s="13">
-        <v>4.9431615148663166</v>
-      </c>
-      <c r="J5" s="13">
-        <v>4.6191184228518978E-3</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1.443921173631679E-4</v>
-      </c>
-      <c r="L5" s="13">
-        <v>0.12818127009086311</v>
-      </c>
-      <c r="M5" s="13">
-        <v>2.2855708841234449E-2</v>
-      </c>
-      <c r="N5" s="13">
-        <v>7.4838957516476512E-5</v>
-      </c>
-      <c r="O5" s="13">
-        <v>3.578425417799735E-3</v>
-      </c>
-      <c r="P5" s="13">
-        <v>2.8668157756328577E-4</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>3.5829370375722647E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>6797.4060000000009</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1.00000015925616</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.62656182702630758</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1.5960119434696629</v>
-      </c>
-      <c r="J6" s="13">
-        <v>2.3667127534281458E-3</v>
-      </c>
-      <c r="K6" s="13">
-        <v>2.1832435595570132E-3</v>
-      </c>
-      <c r="L6" s="13">
-        <v>0.30856308445800101</v>
-      </c>
-      <c r="M6" s="13">
-        <v>3.137899748980999E-2</v>
-      </c>
-      <c r="N6" s="13">
-        <v>6.1807718884665519E-4</v>
-      </c>
-      <c r="O6" s="13">
-        <v>0.28596529306378221</v>
-      </c>
-      <c r="P6" s="13">
-        <v>1.9501510541886091E-4</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>9.7205753903836012E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <f>G8</f>
-        <v>5421.2995378701016</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <f>H8/$G$8</f>
-        <v>0.60017611682249938</v>
-      </c>
-      <c r="I7" s="13">
-        <f>I8</f>
-        <v>1.666177596826546</v>
-      </c>
-      <c r="J7" s="13">
-        <f>J8/$G$8</f>
-        <v>1.7866706568443057E-3</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" ref="K7:Q7" si="0">K8/$G$8</f>
-        <v>1.074154253294724E-2</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" si="0"/>
-        <v>6.2183632729923683E-4</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="0"/>
-        <v>1.3960073147690178E-2</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="0"/>
-        <v>4.4882945517118857E-3</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="0"/>
-        <v>2.7351872721376896E-3</v>
-      </c>
-      <c r="P7" s="13">
-        <f t="shared" si="0"/>
-        <v>1.2205235057779942E-3</v>
-      </c>
-      <c r="Q7" s="13">
-        <f t="shared" si="0"/>
-        <v>5.1284104614026049E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7">
-        <f>G8/17</f>
-        <v>318.8999728158883</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>5421.2995378701016</v>
-      </c>
-      <c r="H8" s="12">
-        <v>3253.734504770488</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1.666177596826546</v>
-      </c>
-      <c r="J8" s="12">
-        <v>9.6860768062761053</v>
-      </c>
-      <c r="K8" s="12">
-        <v>58.233119569878909</v>
-      </c>
-      <c r="L8" s="12">
-        <v>3.3711609938181941</v>
-      </c>
-      <c r="M8" s="12">
-        <v>75.681738104205579</v>
-      </c>
-      <c r="N8" s="12">
-        <v>24.332389179020542</v>
-      </c>
-      <c r="O8" s="12">
-        <v>14.828269494428239</v>
-      </c>
-      <c r="P8" s="12">
-        <v>6.6168235178338364</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>278.02649264410138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="e" cm="1">
-        <f t="array" ref="D13">SUM(D3:D7*G13:G16)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E13" s="10">
-        <v>5000</v>
-      </c>
-      <c r="F13">
-        <f t="array" ref="F13:F16">-D3:D7*G13:G16+F3:F7</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>275.58999999999997</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f t="array" ref="H13:H16">B3:B7</f>
-        <v>Ecopulpers_450_110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="e">
-        <f t="array" ref="D14">SUM(K3:K7*G13:G16)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E14" s="10">
-        <v>50</v>
-      </c>
-      <c r="F14">
-        <v>275.58999999999997</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <v>Ecopulpers</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="e" cm="1">
-        <f t="array" ref="D15">SUM(L3:L7*G13:G16)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>52.620181009218186</v>
-      </c>
-      <c r="G15" s="11">
-        <v>414.42237999999998</v>
-      </c>
-      <c r="H15" s="2" t="str">
-        <v>Shading nets</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="e">
-        <f t="array" ref="D16">SUM(J3:J7*G13:G16)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2487.4184000000005</v>
-      </c>
-      <c r="G16" s="11">
-        <v>4309.9876000000004</v>
-      </c>
-      <c r="H16" s="2" t="str">
-        <v>Shading trees</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="e">
-        <f t="array" ref="D20">SUM(H3:H7*G13:G16)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF2965D-1EA1-4F4E-A14D-11727EE581CD}">
-  <dimension ref="A2:B23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>